--- a/public/数据库.xlsx
+++ b/public/数据库.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="3"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="贷款" sheetId="1" r:id="rId1"/>
     <sheet name="置换" sheetId="2" r:id="rId2"/>
     <sheet name="终端折让" sheetId="3" r:id="rId3"/>
     <sheet name="利润体系" sheetId="4" r:id="rId4"/>
+    <sheet name="备案" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="114">
   <si>
     <t>银行</t>
   </si>
@@ -38,24 +39,42 @@
     <t>利率</t>
   </si>
   <si>
+    <t>关键字</t>
+  </si>
+  <si>
     <t>交行</t>
   </si>
   <si>
+    <t>交</t>
+  </si>
+  <si>
     <t>工行</t>
   </si>
   <si>
+    <t>工</t>
+  </si>
+  <si>
     <t>建设</t>
   </si>
   <si>
+    <t>建</t>
+  </si>
+  <si>
     <t>招商</t>
   </si>
   <si>
+    <t>招</t>
+  </si>
+  <si>
     <t>平安</t>
   </si>
   <si>
     <t>全款</t>
   </si>
   <si>
+    <t>全</t>
+  </si>
+  <si>
     <t>车系</t>
   </si>
   <si>
@@ -164,30 +183,30 @@
     <t>全系</t>
   </si>
   <si>
+    <t>建议零售价</t>
+  </si>
+  <si>
+    <t>提车价</t>
+  </si>
+  <si>
+    <t>提车差价</t>
+  </si>
+  <si>
+    <t>月度提车折让</t>
+  </si>
+  <si>
+    <t>广告支持折让</t>
+  </si>
+  <si>
+    <t>精诚服务考核折让</t>
+  </si>
+  <si>
+    <t>智享服务体验(WES)折让</t>
+  </si>
+  <si>
     <t>活力版</t>
   </si>
   <si>
-    <t>建议零售价</t>
-  </si>
-  <si>
-    <t>提车价</t>
-  </si>
-  <si>
-    <t>提车差价</t>
-  </si>
-  <si>
-    <t>月度提车折让</t>
-  </si>
-  <si>
-    <t>广告支持折让</t>
-  </si>
-  <si>
-    <t>精诚服务考核折让</t>
-  </si>
-  <si>
-    <t>智享服务体验(WES)折让</t>
-  </si>
-  <si>
     <t>自由版</t>
   </si>
   <si>
@@ -291,6 +310,69 @@
   </si>
   <si>
     <t>550四驱热浪版</t>
+  </si>
+  <si>
+    <t>430智航版</t>
+  </si>
+  <si>
+    <t>520智航版</t>
+  </si>
+  <si>
+    <t>520旗舰智航版</t>
+  </si>
+  <si>
+    <t>备案差价</t>
+  </si>
+  <si>
+    <t>505海浪Plus版</t>
+  </si>
+  <si>
+    <t>80KM豪华型</t>
+  </si>
+  <si>
+    <t>海狮05 EV</t>
+  </si>
+  <si>
+    <t>520 旗舰智航版</t>
+  </si>
+  <si>
+    <t>海狮07 EV智驾版</t>
+  </si>
+  <si>
+    <t>550智航版</t>
+  </si>
+  <si>
+    <t>610智航版</t>
+  </si>
+  <si>
+    <t>610智驾版</t>
+  </si>
+  <si>
+    <t>550四驱智驾版</t>
+  </si>
+  <si>
+    <t>海狮07DM-i</t>
+  </si>
+  <si>
+    <t>150领航版</t>
+  </si>
+  <si>
+    <t>150领航+版</t>
+  </si>
+  <si>
+    <t>135高性能激光雷达版</t>
+  </si>
+  <si>
+    <t>25款海豚</t>
+  </si>
+  <si>
+    <t>160KM旗舰PLUS</t>
+  </si>
+  <si>
+    <t>160KM旗舰型PLUS</t>
+  </si>
+  <si>
+    <t>520KM尊贵型</t>
   </si>
 </sst>
 </file>
@@ -1230,68 +1312,89 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.145</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.135</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1410,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1317,18 +1420,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>15000</v>
@@ -1339,7 +1442,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>15000</v>
@@ -1350,7 +1453,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>15000</v>
@@ -1361,7 +1464,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>15000</v>
@@ -1372,7 +1475,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>15000</v>
@@ -1383,7 +1486,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>15000</v>
@@ -1394,7 +1497,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -1405,7 +1508,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>10000</v>
@@ -1416,7 +1519,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>10000</v>
@@ -1427,7 +1530,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>10000</v>
@@ -1438,7 +1541,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -1449,7 +1552,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -1460,7 +1563,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>10000</v>
@@ -1471,7 +1574,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>10000</v>
@@ -1482,7 +1585,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>6000</v>
@@ -1493,7 +1596,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>6000</v>
@@ -1504,7 +1607,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>6000</v>
@@ -1515,7 +1618,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>6000</v>
@@ -1526,7 +1629,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>6000</v>
@@ -1537,7 +1640,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>6000</v>
@@ -1548,7 +1651,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>6000</v>
@@ -1559,7 +1662,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>6000</v>
@@ -1570,7 +1673,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>5000</v>
@@ -1581,7 +1684,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>5000</v>
@@ -1592,7 +1695,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>5000</v>
@@ -1603,7 +1706,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>5000</v>
@@ -1614,7 +1717,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>4000</v>
@@ -1625,7 +1728,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>4000</v>
@@ -1636,7 +1739,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>4000</v>
@@ -1658,7 +1761,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1669,21 +1772,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>30000</v>
@@ -1691,10 +1794,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>18000</v>
@@ -1702,10 +1805,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>12000</v>
@@ -1713,10 +1816,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -1724,10 +1827,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>16000</v>
@@ -1735,10 +1838,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -1746,10 +1849,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -1757,10 +1860,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>8000</v>
@@ -1768,10 +1871,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>12000</v>
@@ -1779,10 +1882,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>8000</v>
@@ -1790,10 +1893,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>3000</v>
@@ -1801,10 +1904,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>18000</v>
@@ -1812,10 +1915,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>8000</v>
@@ -1823,10 +1926,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>8000</v>
@@ -1834,10 +1937,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>3000</v>
@@ -1845,10 +1948,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>6000</v>
@@ -1856,10 +1959,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>6000</v>
@@ -1867,10 +1970,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>5000</v>
@@ -1878,10 +1981,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>6000</v>
@@ -1889,10 +1992,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>8000</v>
@@ -1900,10 +2003,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>14000</v>
@@ -1911,10 +2014,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>8000</v>
@@ -1922,10 +2025,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>3000</v>
@@ -1946,10 +2049,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1967,39 +2070,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>69800</v>
@@ -2026,7 +2129,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>78800</v>
@@ -2053,7 +2156,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2">
         <v>85800</v>
@@ -2079,10 +2182,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2">
         <v>135800</v>
@@ -2109,7 +2212,7 @@
     <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2">
         <v>145800</v>
@@ -2136,7 +2239,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <v>155800</v>
@@ -2163,7 +2266,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2">
         <v>165800</v>
@@ -2190,7 +2293,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2">
         <v>175800</v>
@@ -2216,10 +2319,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>99800</v>
@@ -2246,7 +2349,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>109800</v>
@@ -2273,7 +2376,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2">
         <v>125800</v>
@@ -2299,10 +2402,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>79800</v>
@@ -2329,7 +2432,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2">
         <v>93800</v>
@@ -2356,7 +2459,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2">
         <v>103800</v>
@@ -2382,10 +2485,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2">
         <v>102800</v>
@@ -2412,7 +2515,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2">
         <v>112800</v>
@@ -2439,7 +2542,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2">
         <v>122800</v>
@@ -2466,7 +2569,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2">
         <v>132800</v>
@@ -2492,10 +2595,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2">
         <v>175800</v>
@@ -2522,7 +2625,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2">
         <v>189800</v>
@@ -2549,7 +2652,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2">
         <v>216800</v>
@@ -2576,7 +2679,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2">
         <v>239800</v>
@@ -2602,10 +2705,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2">
         <v>99800</v>
@@ -2632,7 +2735,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2">
         <v>109800</v>
@@ -2659,7 +2762,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2">
         <v>119800</v>
@@ -2686,7 +2789,7 @@
     <row r="27" spans="1:9">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2">
         <v>129800</v>
@@ -2713,7 +2816,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2">
         <v>139800</v>
@@ -2739,10 +2842,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2">
         <v>139800</v>
@@ -2769,7 +2872,7 @@
     <row r="30" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2">
         <v>155800</v>
@@ -2796,7 +2899,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2">
         <v>165800</v>
@@ -2823,7 +2926,7 @@
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2">
         <v>175800</v>
@@ -2850,7 +2953,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2">
         <v>195800</v>
@@ -2876,10 +2979,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2">
         <v>149800</v>
@@ -2906,7 +3009,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2">
         <v>159800</v>
@@ -2933,7 +3036,7 @@
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2">
         <v>175800</v>
@@ -2959,10 +3062,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2">
         <v>136800</v>
@@ -2989,7 +3092,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2">
         <v>146800</v>
@@ -3016,7 +3119,7 @@
     <row r="39" spans="1:9">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2">
         <v>162800</v>
@@ -3043,7 +3146,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2">
         <v>186800</v>
@@ -3067,8 +3170,91 @@
         <v>300</v>
       </c>
     </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>117800</v>
+      </c>
+      <c r="D41">
+        <v>112200</v>
+      </c>
+      <c r="E41">
+        <v>5600</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>300</v>
+      </c>
+      <c r="H41">
+        <v>300</v>
+      </c>
+      <c r="I41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>127800</v>
+      </c>
+      <c r="D42">
+        <v>121600</v>
+      </c>
+      <c r="E42">
+        <v>6200</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>300</v>
+      </c>
+      <c r="H42">
+        <v>300</v>
+      </c>
+      <c r="I42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>137800</v>
+      </c>
+      <c r="D43">
+        <v>131000</v>
+      </c>
+      <c r="E43">
+        <v>6800</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>300</v>
+      </c>
+      <c r="H43">
+        <v>300</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -3079,8 +3265,900 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>24100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73">
+        <v>27100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/public/数据库.xlsx
+++ b/public/数据库.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="贷款" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="终端折让" sheetId="3" r:id="rId3"/>
     <sheet name="利润体系" sheetId="4" r:id="rId4"/>
     <sheet name="备案" sheetId="5" r:id="rId5"/>
+    <sheet name="免息" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="161">
   <si>
     <t>银行</t>
   </si>
@@ -373,19 +374,178 @@
   </si>
   <si>
     <t>520KM尊贵型</t>
+  </si>
+  <si>
+    <t>车系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海脉荣耀版</t>
+  </si>
+  <si>
+    <t>海脉智驾版</t>
+  </si>
+  <si>
+    <t>2025款沟鸥</t>
+  </si>
+  <si>
+    <t>海豹06 DM-i智驾版</t>
+  </si>
+  <si>
+    <t>海约06 GT</t>
+  </si>
+  <si>
+    <t>海豹06 GT智驾版</t>
+  </si>
+  <si>
+    <t>第二代秦PLUS DM-i智驾版</t>
+  </si>
+  <si>
+    <t>元PLUS荣耀版</t>
+  </si>
+  <si>
+    <t>秦PLIS DM-i荣耀版</t>
+  </si>
+  <si>
+    <t>宋L DM-i智驾版</t>
+  </si>
+  <si>
+    <t>臻享贴息融24期免息</t>
+  </si>
+  <si>
+    <t>臻享贴息融-24期免息</t>
+  </si>
+  <si>
+    <t>鸭享贴息融24期免息</t>
+  </si>
+  <si>
+    <t>鸥享贴息融-24期免息</t>
+  </si>
+  <si>
+    <t>臻字贴息融- 24期免息限额8.30万</t>
+  </si>
+  <si>
+    <t>臻享贴息融-24期免息-限额8.30万</t>
+  </si>
+  <si>
+    <t>臻字贴息融一土朝24期免息一限额5.11万</t>
+  </si>
+  <si>
+    <t>新易贴总贷-24期专享-王朝</t>
+  </si>
+  <si>
+    <t>新易贴息贷-24期专享-王朝</t>
+  </si>
+  <si>
+    <t>新易贴息贷24期专享王朝</t>
+  </si>
+  <si>
+    <t>新易贴息贷-24期专享限额7.02万</t>
+  </si>
+  <si>
+    <t>新易贴总贷-24期专享-限额702万</t>
+  </si>
+  <si>
+    <t>新易贴息贷-24期专享-限额8.04万</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高融资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴息后经销商利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豹05DM-i智驾版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋PLUS DM-i智驾版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豹06 DM-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二代元PLUS智驾版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋PRO DM-i荣耀版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋PRO DM-i智驾版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋L DM-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臻字贴总融24期免息限额5.11万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臻亨贴总融-24期免息-限额5.11万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臻享贴总融-24期免总-限额8.04万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臻享贴息融-24期免息-限额8.04万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臻享贴息融-24期免息-限额6.38万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臻享贴息融- 24期免息-限额6.38万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,345 +554,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -740,251 +576,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,67 +586,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1306,19 +853,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1336,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1347,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1380,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1388,32 +935,42 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
   </cols>
@@ -1749,22 +1306,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
@@ -2035,6 +1591,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U11">
       <formula1>置换!$A$2:$A$30</formula1>
@@ -2042,13 +1599,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2098,19 +1653,19 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>69800</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>65800</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4000</v>
       </c>
       <c r="F2">
@@ -2127,17 +1682,17 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>78800</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>74300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>4500</v>
       </c>
       <c r="F3">
@@ -2154,17 +1709,17 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>85800</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>80800</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>5000</v>
       </c>
       <c r="F4">
@@ -2181,19 +1736,19 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>135800</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>129200</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>6600</v>
       </c>
       <c r="F5">
@@ -2210,17 +1765,17 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>145800</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>138700</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7100</v>
       </c>
       <c r="F6">
@@ -2237,17 +1792,17 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>155800</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>148200</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7600</v>
       </c>
       <c r="F7">
@@ -2264,17 +1819,17 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>165800</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>157200</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>8600</v>
       </c>
       <c r="F8">
@@ -2291,17 +1846,17 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>175800</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>166700</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>9100</v>
       </c>
       <c r="F9">
@@ -2318,19 +1873,19 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>99800</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>94800</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>5000</v>
       </c>
       <c r="F10">
@@ -2347,17 +1902,17 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>109800</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>104200</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>5600</v>
       </c>
       <c r="F11">
@@ -2374,17 +1929,17 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>125800</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>119200</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>6600</v>
       </c>
       <c r="F12">
@@ -2401,19 +1956,19 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>79800</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>75800</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>4000</v>
       </c>
       <c r="F13">
@@ -2430,17 +1985,17 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>93800</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>89300</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4500</v>
       </c>
       <c r="F14">
@@ -2457,17 +2012,17 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>103800</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>98800</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>5000</v>
       </c>
       <c r="F15">
@@ -2484,19 +2039,19 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>102800</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>97700</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>5100</v>
       </c>
       <c r="F16">
@@ -2513,17 +2068,17 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>112800</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>107200</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5600</v>
       </c>
       <c r="F17">
@@ -2540,17 +2095,17 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>122800</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>116700</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>6100</v>
       </c>
       <c r="F18">
@@ -2567,17 +2122,17 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>132800</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>126200</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>6600</v>
       </c>
       <c r="F19">
@@ -2594,19 +2149,19 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>175800</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>167400</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>8400</v>
       </c>
       <c r="F20">
@@ -2623,17 +2178,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>189800</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>180900</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>8900</v>
       </c>
       <c r="F21">
@@ -2650,17 +2205,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>216800</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>205900</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>10900</v>
       </c>
       <c r="F22">
@@ -2677,17 +2232,17 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>239800</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>227400</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>12400</v>
       </c>
       <c r="F23">
@@ -2704,19 +2259,19 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>99800</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>94800</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>5000</v>
       </c>
       <c r="F24">
@@ -2733,17 +2288,17 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>109800</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>104800</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>5000</v>
       </c>
       <c r="F25">
@@ -2760,17 +2315,17 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>119800</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>114300</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>5500</v>
       </c>
       <c r="F26">
@@ -2787,17 +2342,17 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>129800</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>123800</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>6000</v>
       </c>
       <c r="F27">
@@ -2814,17 +2369,17 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>139800</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>133300</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>65000</v>
       </c>
       <c r="F28">
@@ -2841,19 +2396,19 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>139800</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>132900</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>6900</v>
       </c>
       <c r="F29">
@@ -2870,17 +2425,17 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>155800</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>148400</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>7400</v>
       </c>
       <c r="F30">
@@ -2897,17 +2452,17 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>165800</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>157400</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>8400</v>
       </c>
       <c r="F31">
@@ -2924,17 +2479,17 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>175800</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>166400</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>9400</v>
       </c>
       <c r="F32">
@@ -2951,17 +2506,17 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>195800</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>185400</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>10400</v>
       </c>
       <c r="F33">
@@ -2978,19 +2533,19 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>149800</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>141700</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>8100</v>
       </c>
       <c r="F34">
@@ -3007,17 +2562,17 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>159800</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>151200</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>8600</v>
       </c>
       <c r="F35">
@@ -3034,17 +2589,17 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>175800</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>166200</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>9600</v>
       </c>
       <c r="F36">
@@ -3061,19 +2616,19 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>136800</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>130700</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>6100</v>
       </c>
       <c r="F37">
@@ -3090,17 +2645,17 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>146800</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>139700</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>7100</v>
       </c>
       <c r="F38">
@@ -3117,17 +2672,17 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>162800</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>155200</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>7600</v>
       </c>
       <c r="F39">
@@ -3144,17 +2699,17 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>186800</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>178200</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>8600</v>
       </c>
       <c r="F40">
@@ -3171,7 +2726,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
@@ -3200,7 +2755,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>94</v>
       </c>
@@ -3227,7 +2782,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>95</v>
       </c>
@@ -3260,28 +2815,27 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A43"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -4158,7 +3712,501 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2">
+        <v>51100</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>2299.5</v>
+      </c>
+      <c r="G2">
+        <v>1299.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <v>51100</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>2299.5</v>
+      </c>
+      <c r="G3">
+        <v>1699.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4">
+        <v>80400</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>3618</v>
+      </c>
+      <c r="G4">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5">
+        <v>80400</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3618</v>
+      </c>
+      <c r="G5">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>58700</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2641.5</v>
+      </c>
+      <c r="G6">
+        <v>2043.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>58700</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>2641.5</v>
+      </c>
+      <c r="G7">
+        <v>2043.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>58700</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>2641.5</v>
+      </c>
+      <c r="G8">
+        <v>1951.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>26500</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1192.5</v>
+      </c>
+      <c r="G9">
+        <v>692.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>26500</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1192.5</v>
+      </c>
+      <c r="G10">
+        <v>892.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11">
+        <v>63800</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>2871</v>
+      </c>
+      <c r="G11">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12">
+        <v>63800</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>2871</v>
+      </c>
+      <c r="G12">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13">
+        <v>83000</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>3735</v>
+      </c>
+      <c r="G13">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>83000</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>3735</v>
+      </c>
+      <c r="G14">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>51100</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2299.5</v>
+      </c>
+      <c r="G15">
+        <v>1819.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16">
+        <v>63887</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>2874.915</v>
+      </c>
+      <c r="G16">
+        <v>2124.915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>63887</v>
+      </c>
+      <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>2874.915</v>
+      </c>
+      <c r="G17">
+        <v>2124.915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>63887</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>2874.915</v>
+      </c>
+      <c r="G18">
+        <v>2374.915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19">
+        <v>70200</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>3159</v>
+      </c>
+      <c r="G19">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <v>70200</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>3159</v>
+      </c>
+      <c r="G20">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21">
+        <v>80400</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>3618</v>
+      </c>
+      <c r="G21">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22">
+        <v>80400</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>3618</v>
+      </c>
+      <c r="G22">
+        <v>2295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>